--- a/Parameters/rail_parameters.xlsx
+++ b/Parameters/rail_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engs1825\Documents\GitHub\GeoH2\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199018FF-53EF-40AB-948A-1121ABE9ECC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A38E8C-7468-42CA-B684-BAF875A3B066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{01CAD706-003C-4A74-9F03-CC297AE4FC2E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{01CAD706-003C-4A74-9F03-CC297AE4FC2E}"/>
   </bookViews>
   <sheets>
     <sheet name="CuConcentrate" sheetId="5" r:id="rId1"/>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACB09F0-2D3D-4032-8DB9-ED9ACFD36DB6}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,7 +499,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>160000</v>
+        <v>133333</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -507,7 +507,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>160000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -523,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -531,7 +531,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -539,7 +539,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>210000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -555,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>2600</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -563,7 +563,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -592,7 +592,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>160000</v>
+        <v>133333</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>160000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -682,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -690,7 +690,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>210000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>2600</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -714,7 +714,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3CC739-D7C7-4944-B7B3-04035841507B}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>160000</v>
+        <v>133333</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -809,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>160000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -825,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -833,7 +833,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -841,7 +841,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>210000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>2600</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
